--- a/resources/clinicianToDoVisit.xlsx
+++ b/resources/clinicianToDoVisit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="123">
   <si>
     <t>/html/body/div/div/md-content/div/section/div[5]/button</t>
   </si>
@@ -405,6 +405,30 @@
   </si>
   <si>
     <t>3123</t>
+  </si>
+  <si>
+    <t>//*[@id="inbox-list"]/md-list-item[3]/div/button</t>
+  </si>
+  <si>
+    <t>History &amp; Diagnoses</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1000.nf"]</t>
+  </si>
+  <si>
+    <t>M1000</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1000.snf"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1000.other"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.m1000.detail"]</t>
+  </si>
+  <si>
+    <t>details</t>
   </si>
 </sst>
 </file>
@@ -748,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2393,6 +2417,140 @@
         <v>1</v>
       </c>
       <c r="G93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3">
         <v>1</v>
       </c>
     </row>

--- a/resources/clinicianToDoVisit.xlsx
+++ b/resources/clinicianToDoVisit.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="205">
   <si>
     <t>/html/body/div/div/md-content/div/section/div[5]/button</t>
   </si>
@@ -443,9 +444,6 @@
     <t>/html/body/div/div/md-content/div/section/div[3]/button</t>
   </si>
   <si>
-    <t>//*[@id="inbox-list"]/div[1]/md-list-item/div/button</t>
-  </si>
-  <si>
     <t>First Patient</t>
   </si>
   <si>
@@ -464,9 +462,6 @@
     <t>//*[@id="widget"]/div[1]/div[3]</t>
   </si>
   <si>
-    <t>//*[@id="inbox-list"]/md-list-item[16]/div/button</t>
-  </si>
-  <si>
     <t>Click Notes</t>
   </si>
   <si>
@@ -558,6 +553,129 @@
   </si>
   <si>
     <t>/html/body/div[3]/md-dialog/md-dialog-actions/button</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,'Planofcare')]</t>
+  </si>
+  <si>
+    <t>custom_value</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>click_custom</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,'%1$2s')]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m2250.a"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m2250.c"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m2250.e"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m2250.g"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m2250.b"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m2250.d"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m2250.f"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>//input[@placeholder="Visit Start Date"]</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>aria-valuenow</t>
+  </si>
+  <si>
+    <t>add chha</t>
+  </si>
+  <si>
+    <t>dragY</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.frequency.servicePlans['CHHA'][hhaIndex].frequency" and @id="w1-slider"] //div[@class="_md-thumb"]</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.frequency.servicePlans['CHHA'][hhaIndex].weeks" and @id="w2-slider"]//div[@class="_md-thumb"]</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.frequency.servicePlans[vm.visit.visitKey.clinicianType][clinicianIndex].frequency" and @id="w1-slider"]//div[@class="_md-thumb-container"]</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.frequency.servicePlans[vm.visit.visitKey.clinicianType][clinicianIndex].weeks" and @id="w2-slider"]//div[@class="_md-thumb-container"]</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>//md-card[2]//md-tab-item[1]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="RN Evaluation"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@aria-label="OT Evaluation"]</t>
+  </si>
+  <si>
+    <t>Rn</t>
+  </si>
+  <si>
+    <t>Ot</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.frequency[clinician].reason"][1]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>(//md-select[@ng-model="vm.frequency[clinician].reason"])[2]</t>
   </si>
 </sst>
 </file>
@@ -908,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:G42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -927,7 +1045,7 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -953,10 +1071,13 @@
         <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -976,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -996,29 +1117,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>129</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -1039,29 +1163,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" t="s">
         <v>131</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30">
-      <c r="A7" t="s">
-        <v>132</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -1079,9 +1203,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -1099,12 +1223,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -1119,12 +1243,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -1139,23 +1263,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>140</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>43</v>
@@ -1173,9 +1297,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>44</v>
@@ -1193,12 +1317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
@@ -1213,12 +1337,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
@@ -1233,12 +1357,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -1253,12 +1377,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -1273,12 +1397,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
@@ -1293,12 +1417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
@@ -1313,12 +1437,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
@@ -1333,9 +1457,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -1353,9 +1477,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>71</v>
@@ -1373,35 +1497,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1413,15 +1531,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1433,12 +1551,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>147</v>
-      </c>
+    <row r="26" spans="1:8">
       <c r="B26" s="3" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
@@ -1453,12 +1568,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>140</v>
-      </c>
+    <row r="27" spans="1:8" ht="30">
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
@@ -1473,12 +1585,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>141</v>
-      </c>
+    <row r="28" spans="1:8" ht="30">
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
@@ -1493,15 +1602,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>148</v>
-      </c>
+    <row r="29" spans="1:8" ht="30">
       <c r="B29" s="3" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>202</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -1513,12 +1622,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>149</v>
-      </c>
+    <row r="30" spans="1:8">
       <c r="B30" s="3" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>10</v>
@@ -1533,12 +1639,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>140</v>
-      </c>
+    <row r="31" spans="1:8" ht="30">
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>10</v>
@@ -1553,12 +1656,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
+    <row r="32" spans="1:8" ht="30">
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>10</v>
@@ -1573,15 +1673,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>140</v>
-      </c>
+    <row r="33" spans="1:7" ht="30">
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>202</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -1595,41 +1695,47 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30">
-      <c r="A35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>159</v>
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -1649,7 +1755,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>71</v>
@@ -1667,46 +1773,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>159</v>
+        <v>10</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30">
-      <c r="A40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>10</v>
@@ -1723,41 +1835,63 @@
     </row>
     <row r="41" spans="1:7" ht="30">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" customFormat="1" ht="30">
+      <c r="A42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" customFormat="1">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1771,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H99"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3803,12 +3937,723 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="150">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="150">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="150">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="150">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="150">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="150">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="150">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="165">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="165">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="165">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="165">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="390">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="375">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="135">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="30">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="225">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="45">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="45">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="30">
+      <c r="A14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="30">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/clinicianToDoVisit.xlsx
+++ b/resources/clinicianToDoVisit.xlsx
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4513,7 +4513,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="30">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="240">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="45">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="345">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="45">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="330">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="60">
       <c r="A13" t="s">
         <v>186</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="30">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="270">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="270">
       <c r="A15" t="s">
         <v>185</v>
       </c>

--- a/resources/clinicianToDoVisit.xlsx
+++ b/resources/clinicianToDoVisit.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="205">
   <si>
     <t>/html/body/div/div/md-content/div/section/div[5]/button</t>
   </si>
@@ -1026,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1793,12 +1793,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>10</v>
@@ -1813,16 +1813,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" customFormat="1" ht="30">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D40" s="4"/>
       <c r="E40" s="3">
         <v>1</v>
       </c>
@@ -1833,16 +1834,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" customFormat="1">
       <c r="A41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>19</v>
+        <v>162</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="3">
         <v>1</v>
       </c>
@@ -1850,48 +1852,6 @@
         <v>1</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" customFormat="1" ht="30">
-      <c r="A42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" customFormat="1">
-      <c r="A43" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
         <v>1</v>
       </c>
     </row>

--- a/resources/clinicianToDoVisit.xlsx
+++ b/resources/clinicianToDoVisit.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="207">
   <si>
     <t>/html/body/div/div/md-content/div/section/div[5]/button</t>
   </si>
@@ -676,6 +676,12 @@
   </si>
   <si>
     <t>(//md-select[@ng-model="vm.frequency[clinician].reason"])[2]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.goals.value"]</t>
+  </si>
+  <si>
+    <t>Goals</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1775,10 +1781,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>10</v>
@@ -1795,63 +1801,103 @@
     </row>
     <row r="39" spans="1:7" ht="30">
       <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" customFormat="1" ht="30">
-      <c r="A40" t="s">
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" customFormat="1" ht="30">
+      <c r="A42" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" customFormat="1">
-      <c r="A41" t="s">
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" customFormat="1">
+      <c r="A43" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
         <v>1</v>
       </c>
     </row>

--- a/resources/clinicianToDoVisit.xlsx
+++ b/resources/clinicianToDoVisit.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="217">
   <si>
     <t>/html/body/div/div/md-content/div/section/div[5]/button</t>
   </si>
@@ -682,6 +682,36 @@
   </si>
   <si>
     <t>Goals</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-content/md-content/md-card/md-card-content/md-list/md-list-item[2]/div/button</t>
+  </si>
+  <si>
+    <t>//form[@name="task"]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-content/md-content/md-card/md-card-content/md-list/md-list-item[3]/div/button</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>Sign-out</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-content/md-content/md-card/md-card-content/md-list/md-list-item[4]/div/button</t>
+  </si>
+  <si>
+    <t>//form[@name="signature"]//md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/md-dialog/md-dialog-actions/button[1]</t>
+  </si>
+  <si>
+    <t>patient</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1051,7 +1081,7 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1">
+    <row r="1" spans="1:10" ht="54" customHeight="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1211,124 +1241,118 @@
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
@@ -1345,10 +1369,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
@@ -1360,15 +1384,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -1380,35 +1404,29 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
@@ -1425,10 +1443,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
@@ -1445,10 +1463,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
@@ -1465,10 +1483,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
@@ -1485,10 +1503,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
@@ -1505,27 +1523,33 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1539,132 +1563,141 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>198</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="3" t="s">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30">
-      <c r="B27" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30">
-      <c r="B28" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30">
-      <c r="B29" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30">
-      <c r="B31" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30">
-      <c r="B32" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>10</v>
@@ -1681,54 +1714,48 @@
     </row>
     <row r="33" spans="1:7" ht="30">
       <c r="B33" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30">
+      <c r="B34" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30">
+      <c r="B35" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
@@ -1740,11 +1767,8 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>138</v>
-      </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>10</v>
@@ -1759,12 +1783,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>139</v>
-      </c>
+    <row r="37" spans="1:7" ht="30">
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
@@ -1779,12 +1800,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>206</v>
-      </c>
+    <row r="38" spans="1:7" ht="30">
       <c r="B38" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>10</v>
@@ -1800,14 +1818,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="30">
-      <c r="A39" t="s">
-        <v>158</v>
-      </c>
       <c r="B39" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>202</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -1839,65 +1857,285 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" customFormat="1" ht="30">
-      <c r="A42" t="s">
+      <c r="C47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" customFormat="1" ht="30">
+      <c r="A48" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" customFormat="1">
-      <c r="A43" t="s">
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" customFormat="1">
+      <c r="A49" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="C49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
         <v>1</v>
       </c>
     </row>

--- a/resources/clinicianToDoVisit.xlsx
+++ b/resources/clinicianToDoVisit.xlsx
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1218,6 +1218,9 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" t="s">
@@ -1238,6 +1241,9 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
@@ -1258,6 +1264,9 @@
       <c r="G8" s="3">
         <v>1</v>
       </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="3" t="s">
@@ -1275,6 +1284,9 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="3" t="s">
@@ -1292,6 +1304,9 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
@@ -1312,6 +1327,9 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="3" t="s">
@@ -1329,6 +1347,9 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
@@ -1346,6 +1367,9 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="A14" t="s">
@@ -1366,6 +1390,9 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
@@ -2018,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" customFormat="1">
+    <row r="49" spans="1:9" customFormat="1">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -2039,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -2058,8 +2085,11 @@
       <c r="G50" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="30">
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" t="s">
         <v>212</v>
       </c>
@@ -2078,8 +2108,11 @@
       <c r="G51" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -2098,8 +2131,11 @@
       <c r="G52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -2118,8 +2154,11 @@
       <c r="G53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="30">
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -2136,6 +2175,9 @@
         <v>1</v>
       </c>
       <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3">
         <v>1</v>
       </c>
     </row>

--- a/resources/clinicianToDoVisit.xlsx
+++ b/resources/clinicianToDoVisit.xlsx
@@ -1062,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1113,55 +1113,31 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
+        <v>124</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1170,18 +1146,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -1193,127 +1166,127 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="A7" t="s">
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="A9" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" t="s">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
-      <c r="A11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -1333,94 +1306,94 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30">
-      <c r="A14" t="s">
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="A16" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1431,29 +1404,38 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
@@ -1465,35 +1447,29 @@
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
@@ -1510,10 +1486,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
@@ -1530,10 +1506,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
@@ -1550,10 +1526,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
@@ -1570,10 +1546,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
@@ -1590,10 +1566,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
@@ -1610,10 +1586,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
@@ -1630,10 +1606,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
@@ -1650,10 +1626,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
@@ -1670,27 +1646,33 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -1704,61 +1686,61 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="3" t="s">
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30">
-      <c r="B33" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30">
-      <c r="B34" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>10</v>
@@ -1775,27 +1757,24 @@
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="B35" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30">
+      <c r="B36" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>10</v>
@@ -1812,10 +1791,13 @@
     </row>
     <row r="37" spans="1:7" ht="30">
       <c r="B37" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>10</v>
+        <v>202</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -1827,9 +1809,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7">
       <c r="B38" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>10</v>
@@ -1846,53 +1828,47 @@
     </row>
     <row r="39" spans="1:7" ht="30">
       <c r="B39" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="B40" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="B41" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
@@ -1946,10 +1922,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>10</v>
@@ -1964,12 +1940,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>10</v>
@@ -1986,10 +1962,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>10</v>
@@ -2006,99 +1982,96 @@
     </row>
     <row r="47" spans="1:7" ht="30">
       <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30">
+      <c r="A49" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" customFormat="1" ht="30">
-      <c r="A48" t="s">
+      <c r="C49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" customFormat="1" ht="30">
+      <c r="A50" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" customFormat="1">
-      <c r="A49" t="s">
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" customFormat="1">
+      <c r="A51" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="30">
-      <c r="A51" t="s">
-        <v>212</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D51" s="4"/>
       <c r="E51" s="3">
         <v>1</v>
       </c>
@@ -2106,78 +2079,121 @@
         <v>1</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="I51" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30">
+      <c r="A53" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
         <v>216</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="30">
-      <c r="A54" t="s">
+      <c r="C55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="C56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3">
         <v>1</v>
       </c>
     </row>

--- a/resources/clinicianToDoVisit.xlsx
+++ b/resources/clinicianToDoVisit.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="179">
   <si>
     <t>/html/body/div/div/md-content/div/section/div[5]/button</t>
   </si>
@@ -432,18 +432,12 @@
     <t>details</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[4]/button</t>
-  </si>
-  <si>
     <t>Clinician Portal</t>
   </si>
   <si>
     <t>To-do Visit</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[3]/button</t>
-  </si>
-  <si>
     <t>First Patient</t>
   </si>
   <si>
@@ -465,18 +459,6 @@
     <t>Click Notes</t>
   </si>
   <si>
-    <t>Plan of care tab</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.charts.m2200.number"]</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>M2200</t>
-  </si>
-  <si>
     <t>Save</t>
   </si>
   <si>
@@ -555,69 +537,15 @@
     <t>/html/body/div[3]/md-dialog/md-dialog-actions/button</t>
   </si>
   <si>
-    <t>//button[contains(@aria-label,'Planofcare')]</t>
-  </si>
-  <si>
     <t>custom_value</t>
   </si>
   <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>click_custom</t>
   </si>
   <si>
     <t>//button[contains(@aria-label,'%1$2s')]</t>
   </si>
   <si>
-    <t>//md-radio-group[@ng-model="vm.charts.m2250.a"]/md-radio-button[2]</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.charts.m2250.c"]/md-radio-button[2]</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.charts.m2250.e"]/md-radio-button[2]</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.charts.m2250.g"]/md-radio-button[2]</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.charts.m2250.b"]/md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.charts.m2250.d"]/md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.charts.m2250.f"]/md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>//input[@placeholder="Visit Start Date"]</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>aria-valuenow</t>
   </si>
   <si>
@@ -648,42 +576,6 @@
     <t>//md-card[2]//md-tab-item[1]</t>
   </si>
   <si>
-    <t>//md-checkbox[@aria-label="RN Evaluation"]</t>
-  </si>
-  <si>
-    <t>//md-checkbox[@aria-label="OT Evaluation"]</t>
-  </si>
-  <si>
-    <t>Rn</t>
-  </si>
-  <si>
-    <t>Ot</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.frequency[clinician].reason"][1]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>escape</t>
-  </si>
-  <si>
-    <t>(//md-select[@ng-model="vm.frequency[clinician].reason"])[2]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.charts.goals.value"]</t>
-  </si>
-  <si>
-    <t>Goals</t>
-  </si>
-  <si>
     <t>//*[@id="ui-admin-email"]/md-content/md-content/md-content/md-card/md-card-content/md-list/md-list-item[2]/div/button</t>
   </si>
   <si>
@@ -699,19 +591,13 @@
     <t>start</t>
   </si>
   <si>
-    <t>Sign-out</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-content/md-content/md-card/md-card-content/md-list/md-list-item[4]/div/button</t>
-  </si>
-  <si>
-    <t>//form[@name="signature"]//md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[3]/md-dialog/md-dialog-actions/button[1]</t>
-  </si>
-  <si>
-    <t>patient</t>
+    <t>//button[@aria-label="Clinician Portal"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="To-Do Visit"]</t>
+  </si>
+  <si>
+    <t>20170512023147</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1107,37 +993,64 @@
         <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1">
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>159</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1146,15 +1059,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -1166,18 +1079,21 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B6" t="s">
-        <v>168</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1188,16 +1104,16 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -1215,12 +1131,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -1238,12 +1154,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30">
-      <c r="A9" t="s">
-        <v>131</v>
-      </c>
+    <row r="9" spans="1:10">
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -1261,12 +1174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
+    <row r="10" spans="1:10">
       <c r="B10" s="3" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -1284,9 +1194,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -1306,7 +1219,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -1324,12 +1237,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
+    <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -1347,9 +1257,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
@@ -1368,8 +1281,11 @@
       </c>
     </row>
     <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
@@ -1381,820 +1297,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30">
-      <c r="A16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30">
-      <c r="B35" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30">
-      <c r="B36" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30">
-      <c r="B37" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30">
-      <c r="B39" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30">
-      <c r="B40" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30">
-      <c r="B41" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30">
-      <c r="A47" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30">
-      <c r="A49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" customFormat="1" ht="30">
-      <c r="A50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" customFormat="1">
-      <c r="A51" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="30">
-      <c r="A53" t="s">
-        <v>212</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>216</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="I55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="30">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="I56" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4249,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>44</v>
@@ -4270,10 +3373,10 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -4291,10 +3394,10 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -4312,10 +3415,10 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -4333,10 +3436,10 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -4354,10 +3457,10 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -4375,10 +3478,10 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -4396,10 +3499,10 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -4417,7 +3520,7 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>44</v>
@@ -4438,7 +3541,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>71</v>
@@ -4459,7 +3562,7 @@
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>44</v>
@@ -4480,7 +3583,7 @@
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>71</v>
@@ -4501,10 +3604,10 @@
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="165">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -4522,10 +3625,10 @@
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="165">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
@@ -4543,7 +3646,7 @@
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>44</v>
@@ -4564,7 +3667,7 @@
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>71</v>
@@ -4585,10 +3688,10 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" ht="165">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -4606,10 +3709,10 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="165">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
@@ -4627,7 +3730,7 @@
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>44</v>
@@ -4648,7 +3751,7 @@
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>71</v>
@@ -4669,7 +3772,7 @@
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -4690,7 +3793,7 @@
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>71</v>
@@ -4711,21 +3814,21 @@
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="390">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>44</v>
@@ -4746,7 +3849,7 @@
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>71</v>
@@ -4767,21 +3870,21 @@
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" ht="375">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>44</v>
@@ -4817,7 +3920,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="240">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -4838,10 +3941,10 @@
     </row>
     <row r="2" spans="1:7" ht="225">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -4859,10 +3962,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -4880,38 +3983,38 @@
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="345">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="330">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="60">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -4929,30 +4032,30 @@
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="270">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="270">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/resources/clinicianToDoVisit.xlsx
+++ b/resources/clinicianToDoVisit.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="177">
   <si>
     <t>/html/body/div/div/md-content/div/section/div[5]/button</t>
   </si>
@@ -451,12 +451,6 @@
   </si>
   <si>
     <t>Sign-in</t>
-  </si>
-  <si>
-    <t>//*[@id="widget"]/div[1]/div[3]</t>
-  </si>
-  <si>
-    <t>Click Notes</t>
   </si>
   <si>
     <t>Save</t>
@@ -948,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -993,10 +987,10 @@
         <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1004,7 +998,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -1024,7 +1018,7 @@
         <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -1044,13 +1038,13 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1133,10 +1127,10 @@
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -1156,7 +1150,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -1176,7 +1170,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -1196,10 +1190,10 @@
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -1219,7 +1213,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -1239,7 +1233,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -1259,7 +1253,7 @@
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
@@ -1278,26 +1272,6 @@
       </c>
       <c r="I14" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3352,7 +3326,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>44</v>
@@ -3373,10 +3347,10 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -3394,10 +3368,10 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -3415,10 +3389,10 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -3436,10 +3410,10 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -3457,10 +3431,10 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -3478,10 +3452,10 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -3499,10 +3473,10 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="150">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -3520,7 +3494,7 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>44</v>
@@ -3541,7 +3515,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>71</v>
@@ -3562,7 +3536,7 @@
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>44</v>
@@ -3583,7 +3557,7 @@
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>71</v>
@@ -3604,10 +3578,10 @@
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="165">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -3625,10 +3599,10 @@
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="165">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
@@ -3646,7 +3620,7 @@
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>44</v>
@@ -3667,7 +3641,7 @@
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>71</v>
@@ -3688,10 +3662,10 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" ht="165">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -3709,10 +3683,10 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="165">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
@@ -3730,7 +3704,7 @@
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>44</v>
@@ -3751,7 +3725,7 @@
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>71</v>
@@ -3772,7 +3746,7 @@
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -3793,7 +3767,7 @@
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>71</v>
@@ -3814,21 +3788,21 @@
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="390">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>44</v>
@@ -3849,7 +3823,7 @@
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>71</v>
@@ -3870,21 +3844,21 @@
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" ht="375">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="135">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>44</v>
@@ -3920,7 +3894,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="240">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -3941,10 +3915,10 @@
     </row>
     <row r="2" spans="1:7" ht="225">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -3962,10 +3936,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -3983,38 +3957,38 @@
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="345">
       <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="330">
       <c r="A12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="60">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -4032,30 +4006,30 @@
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="270">
       <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="270">
       <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
